--- a/Kurs_UD/ПрогаБога/python/Data/K_v.xlsx
+++ b/Kurs_UD/ПрогаБога/python/Data/K_v.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Var1</t>
   </si>
@@ -49,6 +49,66 @@
   </si>
   <si>
     <t>Var1</t>
+  </si>
+  <si>
+    <t>K_v_ 1</t>
+  </si>
+  <si>
+    <t>K_v_ 2</t>
+  </si>
+  <si>
+    <t>K_v_ 3</t>
+  </si>
+  <si>
+    <t>K_v_ 4</t>
+  </si>
+  <si>
+    <t>K_v_ 5</t>
+  </si>
+  <si>
+    <t>K_v_ 6</t>
+  </si>
+  <si>
+    <t>K_v_ 7</t>
+  </si>
+  <si>
+    <t>K_v_ 8</t>
+  </si>
+  <si>
+    <t>K_v_ 9</t>
+  </si>
+  <si>
+    <t>K_v_10</t>
+  </si>
+  <si>
+    <t>K_v_ 1</t>
+  </si>
+  <si>
+    <t>K_v_ 2</t>
+  </si>
+  <si>
+    <t>K_v_ 3</t>
+  </si>
+  <si>
+    <t>K_v_ 4</t>
+  </si>
+  <si>
+    <t>K_v_ 5</t>
+  </si>
+  <si>
+    <t>K_v_ 6</t>
+  </si>
+  <si>
+    <t>K_v_ 7</t>
+  </si>
+  <si>
+    <t>K_v_ 8</t>
+  </si>
+  <si>
+    <t>K_v_ 9</t>
+  </si>
+  <si>
+    <t>K_v_10</t>
   </si>
   <si>
     <t>K_v_ 1</t>
@@ -129,7 +189,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -140,15 +200,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -176,34 +240,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>21</v>
